--- a/public/data/db_source/tag_institution.xlsx
+++ b/public/data/db_source/tag_institution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannuaire/datannuaire_dev/db/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannur/datannur_dev/public/data/db_source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D5A31B-8B20-AA42-B358-9CB554CDEEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9DE0E1-64F1-3447-AFCD-FD0D6880A6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8700" yWindow="500" windowWidth="20100" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>tag_id</t>
   </si>
@@ -33,50 +33,17 @@
     <t>institution_id</t>
   </si>
   <si>
-    <t>institution_1</t>
+    <t>ofs-pop</t>
   </si>
   <si>
-    <t>tag_3</t>
-  </si>
-  <si>
-    <t>tag_2</t>
-  </si>
-  <si>
-    <t>institution_2</t>
-  </si>
-  <si>
-    <t>tag_8</t>
-  </si>
-  <si>
-    <t>tag_12</t>
-  </si>
-  <si>
-    <t>tag_13</t>
-  </si>
-  <si>
-    <t>tag_14</t>
-  </si>
-  <si>
-    <t>tag_4</t>
-  </si>
-  <si>
-    <t>tag_5</t>
-  </si>
-  <si>
-    <t>tag_1</t>
-  </si>
-  <si>
-    <t>tag_15</t>
-  </si>
-  <si>
-    <t>tag_11</t>
+    <t>population</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -90,29 +57,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDCE6F1"/>
-        <bgColor rgb="FFDCE6F1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -120,24 +74,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -156,8 +98,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{818938FF-6239-C24D-9DA9-32D4697992C6}" name="Tableau1" displayName="Tableau1" ref="A1:B13" totalsRowShown="0">
-  <autoFilter ref="A1:B13" xr:uid="{818938FF-6239-C24D-9DA9-32D4697992C6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{818938FF-6239-C24D-9DA9-32D4697992C6}" name="Tableau1" displayName="Tableau1" ref="A1:B2" totalsRowShown="0">
+  <autoFilter ref="A1:B2" xr:uid="{818938FF-6239-C24D-9DA9-32D4697992C6}"/>
   <tableColumns count="2">
     <tableColumn id="3" xr3:uid="{8A4EDA13-2538-3045-8E14-C1103781408F}" name="tag_id"/>
     <tableColumn id="2" xr3:uid="{CF1564A4-203C-9047-A417-0A48E9B09C5F}" name="institution_id"/>
@@ -488,18 +430,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -513,98 +455,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
